--- a/data/Dados Educacionais/Censo 2017/Padronização_2017.xlsx
+++ b/data/Dados Educacionais/Censo 2017/Padronização_2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FAE144-AAF3-47BF-84D3-9C7459D8BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{46FAE144-AAF3-47BF-84D3-9C7459D8BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEF6F24-889B-4EC0-BDA3-3DDAE25D84D0}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="2865" windowWidth="15375" windowHeight="7875" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -202,27 +202,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -231,8 +216,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,14 +536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +558,6 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/data/Dados Educacionais/Censo 2017/Padronização_2017.xlsx
+++ b/data/Dados Educacionais/Censo 2017/Padronização_2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{46FAE144-AAF3-47BF-84D3-9C7459D8BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEF6F24-889B-4EC0-BDA3-3DDAE25D84D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F511CB-72A2-495A-90BD-20A31739502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>TP_DEPENDENCIA</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Educacao_Especial_Exclusiva</t>
+  </si>
+  <si>
+    <t>CO_ENTIDADE</t>
+  </si>
+  <si>
+    <t>NO_ENTIDADE</t>
+  </si>
+  <si>
+    <t>Codigo_Escola</t>
+  </si>
+  <si>
+    <t>Nome_Escola</t>
   </si>
 </sst>
 </file>
@@ -202,12 +214,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -216,8 +243,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,16 +561,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,180 +585,197 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/data/Dados Educacionais/Censo 2017/Padronização_2017.xlsx
+++ b/data/Dados Educacionais/Censo 2017/Padronização_2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F511CB-72A2-495A-90BD-20A31739502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80D1725-3C6A-4A54-B6F0-55C4811CD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>TP_DEPENDENCIA</t>
   </si>
@@ -166,18 +166,6 @@
   </si>
   <si>
     <t>Educacao_Especial_Exclusiva</t>
-  </si>
-  <si>
-    <t>CO_ENTIDADE</t>
-  </si>
-  <si>
-    <t>NO_ENTIDADE</t>
-  </si>
-  <si>
-    <t>Codigo_Escola</t>
-  </si>
-  <si>
-    <t>Nome_Escola</t>
   </si>
 </sst>
 </file>
@@ -561,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,193 +577,177 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
